--- a/Banco Central/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/Banco Central/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Serie</t>
   </si>
@@ -627,6 +627,18 @@
   <si>
     <t>29-07-2021</t>
   </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -983,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH145"/>
+  <dimension ref="A1:BH149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27379,6 +27391,734 @@
         <v>197.14</v>
       </c>
     </row>
+    <row r="146" spans="1:60">
+      <c r="A146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146">
+        <v>23.09</v>
+      </c>
+      <c r="C146">
+        <v>758.53</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>110.57</v>
+      </c>
+      <c r="F146">
+        <v>1.22</v>
+      </c>
+      <c r="G146">
+        <v>35.43</v>
+      </c>
+      <c r="H146">
+        <v>121.26</v>
+      </c>
+      <c r="I146">
+        <v>6.13</v>
+      </c>
+      <c r="J146">
+        <v>86.97</v>
+      </c>
+      <c r="K146">
+        <v>88.78</v>
+      </c>
+      <c r="L146">
+        <v>1082.84</v>
+      </c>
+      <c r="M146">
+        <v>206.57</v>
+      </c>
+      <c r="N146">
+        <v>85.34</v>
+      </c>
+      <c r="O146">
+        <v>561.25</v>
+      </c>
+      <c r="P146">
+        <v>609.85</v>
+      </c>
+      <c r="Q146">
+        <v>758.53</v>
+      </c>
+      <c r="R146">
+        <v>758.53</v>
+      </c>
+      <c r="S146">
+        <v>361.29</v>
+      </c>
+      <c r="T146">
+        <v>925.04</v>
+      </c>
+      <c r="U146">
+        <v>758.53</v>
+      </c>
+      <c r="V146">
+        <v>560.88</v>
+      </c>
+      <c r="W146">
+        <v>97.61</v>
+      </c>
+      <c r="X146">
+        <v>532.04</v>
+      </c>
+      <c r="Y146">
+        <v>27.18</v>
+      </c>
+      <c r="Z146">
+        <v>0.03</v>
+      </c>
+      <c r="AA146">
+        <v>901.83</v>
+      </c>
+      <c r="AB146">
+        <v>2.52</v>
+      </c>
+      <c r="AC146">
+        <v>7.56</v>
+      </c>
+      <c r="AD146">
+        <v>837.51</v>
+      </c>
+      <c r="AE146">
+        <v>0.11</v>
+      </c>
+      <c r="AF146">
+        <v>28.38</v>
+      </c>
+      <c r="AG146">
+        <v>183.41</v>
+      </c>
+      <c r="AH146">
+        <v>48.31</v>
+      </c>
+      <c r="AI146">
+        <v>1059.4</v>
+      </c>
+      <c r="AJ146">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="AK146">
+        <v>193.18</v>
+      </c>
+      <c r="AL146">
+        <v>7.85</v>
+      </c>
+      <c r="AM146">
+        <v>0.2</v>
+      </c>
+      <c r="AN146">
+        <v>31.61</v>
+      </c>
+      <c r="AO146">
+        <v>13.33</v>
+      </c>
+      <c r="AP146">
+        <v>15.08</v>
+      </c>
+      <c r="AQ146">
+        <v>38.21</v>
+      </c>
+      <c r="AR146">
+        <v>17.39</v>
+      </c>
+      <c r="AS146">
+        <v>98.27</v>
+      </c>
+      <c r="AT146">
+        <v>52.19</v>
+      </c>
+      <c r="AU146">
+        <v>149.73</v>
+      </c>
+      <c r="AV146">
+        <v>0.02</v>
+      </c>
+      <c r="AW146">
+        <v>202.27</v>
+      </c>
+      <c r="AX146">
+        <v>179.07</v>
+      </c>
+      <c r="AY146">
+        <v>10.38</v>
+      </c>
+      <c r="AZ146">
+        <v>10.21</v>
+      </c>
+      <c r="BA146">
+        <v>0.05</v>
+      </c>
+      <c r="BB146">
+        <v>4.7</v>
+      </c>
+      <c r="BC146">
+        <v>234.43</v>
+      </c>
+      <c r="BD146">
+        <v>1.79</v>
+      </c>
+      <c r="BE146">
+        <v>0.66</v>
+      </c>
+      <c r="BF146">
+        <v>6.93</v>
+      </c>
+      <c r="BG146">
+        <v>117.44</v>
+      </c>
+      <c r="BH146">
+        <v>197.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:60">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147">
+        <v>23.1</v>
+      </c>
+      <c r="C147">
+        <v>760.2</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>110.82</v>
+      </c>
+      <c r="F147">
+        <v>1.23</v>
+      </c>
+      <c r="G147">
+        <v>35.35</v>
+      </c>
+      <c r="H147">
+        <v>121.16</v>
+      </c>
+      <c r="I147">
+        <v>6.15</v>
+      </c>
+      <c r="J147">
+        <v>86</v>
+      </c>
+      <c r="K147">
+        <v>88.31</v>
+      </c>
+      <c r="L147">
+        <v>1086.16</v>
+      </c>
+      <c r="M147">
+        <v>207.03</v>
+      </c>
+      <c r="N147">
+        <v>85.55</v>
+      </c>
+      <c r="O147">
+        <v>557.45</v>
+      </c>
+      <c r="P147">
+        <v>608.79</v>
+      </c>
+      <c r="Q147">
+        <v>760.2</v>
+      </c>
+      <c r="R147">
+        <v>760.2</v>
+      </c>
+      <c r="S147">
+        <v>364.36</v>
+      </c>
+      <c r="T147">
+        <v>927.0700000000001</v>
+      </c>
+      <c r="U147">
+        <v>760.2</v>
+      </c>
+      <c r="V147">
+        <v>560.99</v>
+      </c>
+      <c r="W147">
+        <v>97.8</v>
+      </c>
+      <c r="X147">
+        <v>529.17</v>
+      </c>
+      <c r="Y147">
+        <v>27.2</v>
+      </c>
+      <c r="Z147">
+        <v>0.03</v>
+      </c>
+      <c r="AA147">
+        <v>901.24</v>
+      </c>
+      <c r="AB147">
+        <v>2.52</v>
+      </c>
+      <c r="AC147">
+        <v>7.59</v>
+      </c>
+      <c r="AD147">
+        <v>838.8</v>
+      </c>
+      <c r="AE147">
+        <v>0.11</v>
+      </c>
+      <c r="AF147">
+        <v>28.5</v>
+      </c>
+      <c r="AG147">
+        <v>183.37</v>
+      </c>
+      <c r="AH147">
+        <v>48.5</v>
+      </c>
+      <c r="AI147">
+        <v>1055.83</v>
+      </c>
+      <c r="AJ147">
+        <v>90.23</v>
+      </c>
+      <c r="AK147">
+        <v>186.89</v>
+      </c>
+      <c r="AL147">
+        <v>7.86</v>
+      </c>
+      <c r="AM147">
+        <v>0.2</v>
+      </c>
+      <c r="AN147">
+        <v>31.68</v>
+      </c>
+      <c r="AO147">
+        <v>13.39</v>
+      </c>
+      <c r="AP147">
+        <v>15.21</v>
+      </c>
+      <c r="AQ147">
+        <v>38.19</v>
+      </c>
+      <c r="AR147">
+        <v>17.41</v>
+      </c>
+      <c r="AS147">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="AT147">
+        <v>51.95</v>
+      </c>
+      <c r="AU147">
+        <v>146.43</v>
+      </c>
+      <c r="AV147">
+        <v>0.02</v>
+      </c>
+      <c r="AW147">
+        <v>202.72</v>
+      </c>
+      <c r="AX147">
+        <v>180.18</v>
+      </c>
+      <c r="AY147">
+        <v>10.39</v>
+      </c>
+      <c r="AZ147">
+        <v>10.22</v>
+      </c>
+      <c r="BA147">
+        <v>0.05</v>
+      </c>
+      <c r="BB147">
+        <v>4.71</v>
+      </c>
+      <c r="BC147">
+        <v>235.36</v>
+      </c>
+      <c r="BD147">
+        <v>1.79</v>
+      </c>
+      <c r="BE147">
+        <v>0.66</v>
+      </c>
+      <c r="BF147">
+        <v>6.92</v>
+      </c>
+      <c r="BG147">
+        <v>117.56</v>
+      </c>
+      <c r="BH147">
+        <v>197.21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:60">
+      <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148">
+        <v>23.11</v>
+      </c>
+      <c r="C148">
+        <v>761.39</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>110.99</v>
+      </c>
+      <c r="F148">
+        <v>1.23</v>
+      </c>
+      <c r="G148">
+        <v>35.5</v>
+      </c>
+      <c r="H148">
+        <v>121.53</v>
+      </c>
+      <c r="I148">
+        <v>6.17</v>
+      </c>
+      <c r="J148">
+        <v>86.25</v>
+      </c>
+      <c r="K148">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="L148">
+        <v>1087.23</v>
+      </c>
+      <c r="M148">
+        <v>207.35</v>
+      </c>
+      <c r="N148">
+        <v>85.67</v>
+      </c>
+      <c r="O148">
+        <v>560.75</v>
+      </c>
+      <c r="P148">
+        <v>608.72</v>
+      </c>
+      <c r="Q148">
+        <v>761.39</v>
+      </c>
+      <c r="R148">
+        <v>761.39</v>
+      </c>
+      <c r="S148">
+        <v>363.48</v>
+      </c>
+      <c r="T148">
+        <v>928.52</v>
+      </c>
+      <c r="U148">
+        <v>761.39</v>
+      </c>
+      <c r="V148">
+        <v>562.78</v>
+      </c>
+      <c r="W148">
+        <v>97.95</v>
+      </c>
+      <c r="X148">
+        <v>530.92</v>
+      </c>
+      <c r="Y148">
+        <v>27.28</v>
+      </c>
+      <c r="Z148">
+        <v>0.03</v>
+      </c>
+      <c r="AA148">
+        <v>904.05</v>
+      </c>
+      <c r="AB148">
+        <v>2.54</v>
+      </c>
+      <c r="AC148">
+        <v>7.6</v>
+      </c>
+      <c r="AD148">
+        <v>841.13</v>
+      </c>
+      <c r="AE148">
+        <v>0.11</v>
+      </c>
+      <c r="AF148">
+        <v>28.48</v>
+      </c>
+      <c r="AG148">
+        <v>183.88</v>
+      </c>
+      <c r="AH148">
+        <v>48.66</v>
+      </c>
+      <c r="AI148">
+        <v>1057.78</v>
+      </c>
+      <c r="AJ148">
+        <v>91.16</v>
+      </c>
+      <c r="AK148">
+        <v>187.51</v>
+      </c>
+      <c r="AL148">
+        <v>7.87</v>
+      </c>
+      <c r="AM148">
+        <v>0.2</v>
+      </c>
+      <c r="AN148">
+        <v>31.72</v>
+      </c>
+      <c r="AO148">
+        <v>13.36</v>
+      </c>
+      <c r="AP148">
+        <v>15.26</v>
+      </c>
+      <c r="AQ148">
+        <v>38.28</v>
+      </c>
+      <c r="AR148">
+        <v>17.5</v>
+      </c>
+      <c r="AS148">
+        <v>98.3</v>
+      </c>
+      <c r="AT148">
+        <v>52.76</v>
+      </c>
+      <c r="AU148">
+        <v>147.89</v>
+      </c>
+      <c r="AV148">
+        <v>0.02</v>
+      </c>
+      <c r="AW148">
+        <v>203.04</v>
+      </c>
+      <c r="AX148">
+        <v>180.25</v>
+      </c>
+      <c r="AY148">
+        <v>10.43</v>
+      </c>
+      <c r="AZ148">
+        <v>10.24</v>
+      </c>
+      <c r="BA148">
+        <v>0.05</v>
+      </c>
+      <c r="BB148">
+        <v>4.66</v>
+      </c>
+      <c r="BC148">
+        <v>236.26</v>
+      </c>
+      <c r="BD148">
+        <v>1.79</v>
+      </c>
+      <c r="BE148">
+        <v>0.66</v>
+      </c>
+      <c r="BF148">
+        <v>6.97</v>
+      </c>
+      <c r="BG148">
+        <v>117.75</v>
+      </c>
+      <c r="BH148">
+        <v>198.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:60">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149">
+        <v>23.45</v>
+      </c>
+      <c r="C149">
+        <v>774.54</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>112.91</v>
+      </c>
+      <c r="F149">
+        <v>1.25</v>
+      </c>
+      <c r="G149">
+        <v>36.09</v>
+      </c>
+      <c r="H149">
+        <v>123.55</v>
+      </c>
+      <c r="I149">
+        <v>6.26</v>
+      </c>
+      <c r="J149">
+        <v>87.93000000000001</v>
+      </c>
+      <c r="K149">
+        <v>90.05</v>
+      </c>
+      <c r="L149">
+        <v>1106.33</v>
+      </c>
+      <c r="M149">
+        <v>210.93</v>
+      </c>
+      <c r="N149">
+        <v>87.15000000000001</v>
+      </c>
+      <c r="O149">
+        <v>572.46</v>
+      </c>
+      <c r="P149">
+        <v>617.7</v>
+      </c>
+      <c r="Q149">
+        <v>774.54</v>
+      </c>
+      <c r="R149">
+        <v>774.54</v>
+      </c>
+      <c r="S149">
+        <v>370.08</v>
+      </c>
+      <c r="T149">
+        <v>944.5599999999999</v>
+      </c>
+      <c r="U149">
+        <v>774.54</v>
+      </c>
+      <c r="V149">
+        <v>572.97</v>
+      </c>
+      <c r="W149">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="X149">
+        <v>542.97</v>
+      </c>
+      <c r="Y149">
+        <v>27.76</v>
+      </c>
+      <c r="Z149">
+        <v>0.03</v>
+      </c>
+      <c r="AA149">
+        <v>918.79</v>
+      </c>
+      <c r="AB149">
+        <v>2.58</v>
+      </c>
+      <c r="AC149">
+        <v>7.7</v>
+      </c>
+      <c r="AD149">
+        <v>856.6</v>
+      </c>
+      <c r="AE149">
+        <v>0.11</v>
+      </c>
+      <c r="AF149">
+        <v>28.97</v>
+      </c>
+      <c r="AG149">
+        <v>186.92</v>
+      </c>
+      <c r="AH149">
+        <v>49.5</v>
+      </c>
+      <c r="AI149">
+        <v>1077.55</v>
+      </c>
+      <c r="AJ149">
+        <v>92.22</v>
+      </c>
+      <c r="AK149">
+        <v>191.51</v>
+      </c>
+      <c r="AL149">
+        <v>8</v>
+      </c>
+      <c r="AM149">
+        <v>0.2</v>
+      </c>
+      <c r="AN149">
+        <v>32.27</v>
+      </c>
+      <c r="AO149">
+        <v>13.6</v>
+      </c>
+      <c r="AP149">
+        <v>15.62</v>
+      </c>
+      <c r="AQ149">
+        <v>38.94</v>
+      </c>
+      <c r="AR149">
+        <v>17.8</v>
+      </c>
+      <c r="AS149">
+        <v>100.5</v>
+      </c>
+      <c r="AT149">
+        <v>54.06</v>
+      </c>
+      <c r="AU149">
+        <v>148.56</v>
+      </c>
+      <c r="AV149">
+        <v>0.02</v>
+      </c>
+      <c r="AW149">
+        <v>206.54</v>
+      </c>
+      <c r="AX149">
+        <v>183.61</v>
+      </c>
+      <c r="AY149">
+        <v>10.61</v>
+      </c>
+      <c r="AZ149">
+        <v>10.43</v>
+      </c>
+      <c r="BA149">
+        <v>0.05</v>
+      </c>
+      <c r="BB149">
+        <v>4.73</v>
+      </c>
+      <c r="BC149">
+        <v>241.33</v>
+      </c>
+      <c r="BD149">
+        <v>1.83</v>
+      </c>
+      <c r="BE149">
+        <v>0.67</v>
+      </c>
+      <c r="BF149">
+        <v>7.1</v>
+      </c>
+      <c r="BG149">
+        <v>119.76</v>
+      </c>
+      <c r="BH149">
+        <v>201.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/Banco Central/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Serie</t>
   </si>
@@ -639,6 +639,9 @@
   <si>
     <t>04-08-2021</t>
   </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -995,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH149"/>
+  <dimension ref="A1:BH150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28119,6 +28122,188 @@
         <v>201.9</v>
       </c>
     </row>
+    <row r="150" spans="1:60">
+      <c r="A150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150">
+        <v>23.41</v>
+      </c>
+      <c r="C150">
+        <v>775.54</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>113.05</v>
+      </c>
+      <c r="F150">
+        <v>1.25</v>
+      </c>
+      <c r="G150">
+        <v>36.1</v>
+      </c>
+      <c r="H150">
+        <v>123.45</v>
+      </c>
+      <c r="I150">
+        <v>6.21</v>
+      </c>
+      <c r="J150">
+        <v>87.75</v>
+      </c>
+      <c r="K150">
+        <v>90.12</v>
+      </c>
+      <c r="L150">
+        <v>1106.97</v>
+      </c>
+      <c r="M150">
+        <v>211.2</v>
+      </c>
+      <c r="N150">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="O150">
+        <v>572.35</v>
+      </c>
+      <c r="P150">
+        <v>617.91</v>
+      </c>
+      <c r="Q150">
+        <v>775.54</v>
+      </c>
+      <c r="R150">
+        <v>775.54</v>
+      </c>
+      <c r="S150">
+        <v>371.8</v>
+      </c>
+      <c r="T150">
+        <v>945.78</v>
+      </c>
+      <c r="U150">
+        <v>775.54</v>
+      </c>
+      <c r="V150">
+        <v>574.05</v>
+      </c>
+      <c r="W150">
+        <v>99.75</v>
+      </c>
+      <c r="X150">
+        <v>546.62</v>
+      </c>
+      <c r="Y150">
+        <v>27.93</v>
+      </c>
+      <c r="Z150">
+        <v>0.03</v>
+      </c>
+      <c r="AA150">
+        <v>918.02</v>
+      </c>
+      <c r="AB150">
+        <v>2.59</v>
+      </c>
+      <c r="AC150">
+        <v>7.71</v>
+      </c>
+      <c r="AD150">
+        <v>855.63</v>
+      </c>
+      <c r="AE150">
+        <v>0.11</v>
+      </c>
+      <c r="AF150">
+        <v>28.98</v>
+      </c>
+      <c r="AG150">
+        <v>186.77</v>
+      </c>
+      <c r="AH150">
+        <v>49.56</v>
+      </c>
+      <c r="AI150">
+        <v>1077.44</v>
+      </c>
+      <c r="AJ150">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="AK150">
+        <v>190.02</v>
+      </c>
+      <c r="AL150">
+        <v>8.01</v>
+      </c>
+      <c r="AM150">
+        <v>0.2</v>
+      </c>
+      <c r="AN150">
+        <v>32.31</v>
+      </c>
+      <c r="AO150">
+        <v>13.61</v>
+      </c>
+      <c r="AP150">
+        <v>15.59</v>
+      </c>
+      <c r="AQ150">
+        <v>38.84</v>
+      </c>
+      <c r="AR150">
+        <v>17.81</v>
+      </c>
+      <c r="AS150">
+        <v>100.6</v>
+      </c>
+      <c r="AT150">
+        <v>54.04</v>
+      </c>
+      <c r="AU150">
+        <v>149.54</v>
+      </c>
+      <c r="AV150">
+        <v>0.02</v>
+      </c>
+      <c r="AW150">
+        <v>206.81</v>
+      </c>
+      <c r="AX150">
+        <v>183.86</v>
+      </c>
+      <c r="AY150">
+        <v>10.6</v>
+      </c>
+      <c r="AZ150">
+        <v>10.45</v>
+      </c>
+      <c r="BA150">
+        <v>0.05</v>
+      </c>
+      <c r="BB150">
+        <v>4.75</v>
+      </c>
+      <c r="BC150">
+        <v>241.35</v>
+      </c>
+      <c r="BD150">
+        <v>1.83</v>
+      </c>
+      <c r="BE150">
+        <v>0.68</v>
+      </c>
+      <c r="BF150">
+        <v>7.08</v>
+      </c>
+      <c r="BG150">
+        <v>120.03</v>
+      </c>
+      <c r="BH150">
+        <v>202.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
